--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2209,6 +2209,62 @@
       </c>
       <c r="B74">
         <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B75">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B76">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B77">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B79">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B80">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B81">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
